--- a/docs/diagrammi/Jacobson scheme.xlsx
+++ b/docs/diagrammi/Jacobson scheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109495_studenti_univpm_it/Documents/Primo Anno/Primo semestre/Software Security and Blockchain/swsb-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109495_studenti_univpm_it/Documents/Primo Anno/Primo semestre/Software Security and Blockchain/swsb-project/docs/diagrammi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9328B7-ECD9-42B1-909F-8953E37963A0}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{855F6EDA-7F23-4E43-9244-A31EA3D7AFB4}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="674" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="674" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CWE-ID 345 (Insufficient Verification of Data Authenticity)</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
   </si>
   <si>
     <t>L'attaccante è un nodo validatore della Blockchain e possiede il 33%+1 dello stake.</t>
+  </si>
+  <si>
+    <t>Per tale caso d'uso ci si è rifatti alla voce del catalogo CWE-ID 345 (Insufficient Verification of Data Authenticity)</t>
   </si>
 </sst>
 </file>
@@ -1018,12 +1018,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1033,7 +1028,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1055,14 +1058,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1072,15 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1092,6 +1086,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1785,10 +1785,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2116,13 +2112,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -2149,9 +2145,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -2205,13 +2201,13 @@
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="L6" s="22" t="s">
         <v>7</v>
       </c>
@@ -2221,276 +2217,282 @@
       <c r="N6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
+      <c r="O6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="L7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
+      <c r="M7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="L8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
+      <c r="M8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
     </row>
     <row r="9" spans="1:21" ht="100.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="L9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
+      <c r="M9" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="L10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
+      <c r="M10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
     </row>
     <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="L11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
+      <c r="M11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="39"/>
     </row>
     <row r="12" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="L12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
+      <c r="M12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="39"/>
     </row>
     <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="L13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
+      <c r="M13" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:21" ht="107.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="B15" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="L15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+      <c r="M15" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
       <c r="L16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -2499,17 +2501,11 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2679,7 +2675,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2697,13 +2693,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -2722,9 +2718,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -2762,156 +2758,161 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="B9" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2920,11 +2921,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
@@ -3020,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A5" zoomScale="55" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3038,13 +3034,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -3059,9 +3055,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -3094,13 +3090,13 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
@@ -3110,275 +3106,291 @@
       <c r="L6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="38"/>
+      <c r="M6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="J7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
+      <c r="K7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="J8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
+      <c r="K8" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="B9" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="J9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="K9" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
       <c r="J10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="42"/>
+      <c r="K10" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="J11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
+      <c r="K11" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="J12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
+      <c r="K13" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
     </row>
     <row r="14" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:18" ht="166.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="J15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
+        <v>54</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="J16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K10:Q10"/>
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K14:Q14"/>
     <mergeCell ref="K15:Q15"/>
@@ -3387,22 +3399,6 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -3583,7 +3579,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -3593,7 +3589,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3609,8 +3605,8 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A8" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3628,13 +3624,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -3661,9 +3657,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -3708,58 +3704,58 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:21" ht="96.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="B9" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="N9" s="26"/>
       <c r="S9" s="26"/>
     </row>
@@ -3767,15 +3763,15 @@
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="N10" s="26"/>
       <c r="S10" s="10"/>
     </row>
@@ -3783,58 +3779,58 @@
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="B12" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:21" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -3842,40 +3838,34 @@
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="N16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -3883,6 +3873,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -3981,8 +3977,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3996,13 +3992,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -4021,9 +4017,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4061,156 +4057,161 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4219,11 +4220,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -4322,8 +4318,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4337,13 +4333,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -4362,9 +4358,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4402,156 +4398,161 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4560,11 +4561,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -4663,8 +4659,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A9" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4682,13 +4678,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -4715,9 +4711,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4771,168 +4767,162 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="N6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:21" ht="119.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -4940,6 +4930,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
@@ -5038,8 +5034,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H16"/>
+    <sheetView topLeftCell="A3" zoomScale="56" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5057,13 +5053,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
@@ -5079,9 +5075,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
@@ -5113,162 +5109,156 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:10" ht="136.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -5276,6 +5266,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -5374,7 +5370,7 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
@@ -5393,13 +5389,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -5414,9 +5410,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -5446,299 +5442,308 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="K6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="55"/>
+      <c r="N6" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="K7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="L7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
     </row>
     <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="K8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="59"/>
+      <c r="L8" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="K9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
+      <c r="L9" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="B10" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="K10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="59"/>
+      <c r="L10" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
       <c r="K11" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
+        <v>52</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="B12" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
       <c r="K12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
+      <c r="L12" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+        <v>49</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="K13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="59"/>
+      <c r="L13" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
       <c r="K14" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="59"/>
+        <v>53</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="K15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59"/>
+        <v>54</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="K16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="59"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:8" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B15:H15"/>
@@ -5755,15 +5760,6 @@
     <mergeCell ref="L13:R13"/>
     <mergeCell ref="L14:R14"/>
     <mergeCell ref="L15:R15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
@@ -5862,7 +5858,7 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="E9" zoomScale="71" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
@@ -5883,13 +5879,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -5915,9 +5911,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -5969,13 +5965,13 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="K6" s="22" t="s">
         <v>7</v>
       </c>
@@ -5985,13 +5981,13 @@
       <c r="M6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
+      <c r="N6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
       <c r="U6" s="22" t="s">
         <v>7</v>
       </c>
@@ -6002,423 +5998,399 @@
         <v>9</v>
       </c>
       <c r="X6" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="35"/>
+        <v>37</v>
+      </c>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="39"/>
     </row>
     <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="K7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="35"/>
+      <c r="L7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
       <c r="U7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="50" t="s">
-        <v>102</v>
+      <c r="V7" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="W7" s="61"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="53"/>
     </row>
     <row r="8" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="K8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
+      <c r="L8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39"/>
       <c r="U8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
+      <c r="V8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="43"/>
     </row>
     <row r="9" spans="1:28" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="K9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
+      <c r="L9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
       <c r="U9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="42"/>
+      <c r="V9" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="43"/>
     </row>
     <row r="10" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
       <c r="K10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
+      <c r="L10" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
       <c r="U10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="42"/>
+      <c r="V10" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="43"/>
     </row>
     <row r="11" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="K11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
+      <c r="L11" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="45"/>
       <c r="U11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="42"/>
+      <c r="V11" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
     </row>
     <row r="12" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="B12" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="K12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
+      <c r="L12" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
       <c r="U12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="42"/>
+      <c r="V12" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="43"/>
     </row>
     <row r="13" spans="1:28" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="K13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
+        <v>49</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
       <c r="U13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="42"/>
+      <c r="V13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
     </row>
     <row r="14" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="K14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
+      <c r="L14" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
       <c r="U14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="40"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="42"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="43"/>
     </row>
     <row r="15" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="K15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
       <c r="U15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="43"/>
     </row>
     <row r="16" spans="1:28" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="K16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
+      <c r="L16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43"/>
       <c r="U16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="42"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="43"/>
     </row>
     <row r="17" spans="11:18" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
+      <c r="L17" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="L15:R15"/>
     <mergeCell ref="L17:R17"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="V7:AB7"/>
@@ -6431,6 +6403,30 @@
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="V15:AB15"/>
     <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="L8:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -6714,7 +6710,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="58" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -6805,156 +6801,161 @@
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -6963,11 +6964,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -7060,6 +7056,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
@@ -7068,15 +7073,6 @@
     <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7269,6 +7265,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7281,14 +7285,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
